--- a/Project/Test Scenarios and cases.xlsx
+++ b/Project/Test Scenarios and cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelancer\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SoftwareTestingHomwork\SoftwareTesting\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B991833B-0332-407F-A5E0-2260FBA44268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenarios" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="163">
   <si>
     <t>Project Name</t>
   </si>
@@ -270,9 +271,6 @@
     <t>6. Enter a number</t>
   </si>
   <si>
-    <t>7. Enter left bracket sign</t>
-  </si>
-  <si>
     <t>8. Click on equal(=) button</t>
   </si>
   <si>
@@ -387,9 +385,6 @@
     <t>2. Enter a number</t>
   </si>
   <si>
-    <t>6. Enter right bracket sign</t>
-  </si>
-  <si>
     <t>7. Enter a number</t>
   </si>
   <si>
@@ -399,9 +394,6 @@
     <t>9. Enter a number</t>
   </si>
   <si>
-    <t>10. Enter left bracket sign</t>
-  </si>
-  <si>
     <t>11. Click on equal(=) button</t>
   </si>
   <si>
@@ -411,9 +403,6 @@
     <t>12. Enter tan(tan) sign</t>
   </si>
   <si>
-    <t>13. Enter right bracket sign</t>
-  </si>
-  <si>
     <t>14. Enter a number</t>
   </si>
   <si>
@@ -423,9 +412,6 @@
     <t>16. Enter a number</t>
   </si>
   <si>
-    <t>17. Enter left bracket sign</t>
-  </si>
-  <si>
     <t>18. Click on equal(=) button</t>
   </si>
   <si>
@@ -475,12 +461,63 @@
   </si>
   <si>
     <t>Check if the calculator perfrom calculation of a given expression with all actions(+,-,x,/,sin,cos,tan,ln,^) performed</t>
+  </si>
+  <si>
+    <t>Got correct sum</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>manually input data</t>
+  </si>
+  <si>
+    <t>Got the first number</t>
+  </si>
+  <si>
+    <t>Got correct result</t>
+  </si>
+  <si>
+    <t>Got minus result of first number</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Got 0</t>
+  </si>
+  <si>
+    <t>Got infinity error</t>
+  </si>
+  <si>
+    <t>3. Enter left bracket sign</t>
+  </si>
+  <si>
+    <t>5. Enter right bracket sign</t>
+  </si>
+  <si>
+    <t>7. Enter right bracket sign</t>
+  </si>
+  <si>
+    <t>Got error message</t>
+  </si>
+  <si>
+    <t>6. Enter left bracket sign</t>
+  </si>
+  <si>
+    <t>10. Enter right bracket sign</t>
+  </si>
+  <si>
+    <t>13. Enter left bracket sign</t>
+  </si>
+  <si>
+    <t>17. Enter right bracket sign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -820,6 +857,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -846,13 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,6 +986,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -984,6 +1038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1159,63 +1230,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="23.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="29"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="8" spans="2:5" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="8" spans="2:5" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1229,127 +1300,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E13" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E14" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1361,31 +1432,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -1405,28 +1476,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1452,15 +1523,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>94</v>
+      <c r="C2" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>30</v>
@@ -1468,11 +1539,17 @@
       <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1484,7 +1561,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1496,7 +1573,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1508,7 +1585,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1520,15 +1597,15 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>93</v>
+      <c r="C7" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>30</v>
@@ -1536,11 +1613,17 @@
       <c r="E7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1552,7 +1635,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1564,7 +1647,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1576,7 +1659,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1588,7 +1671,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1600,7 +1683,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1612,7 +1695,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1624,7 +1707,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1636,27 +1719,33 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>92</v>
+      <c r="C16" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1668,7 +1757,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1680,7 +1769,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1692,15 +1781,15 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>95</v>
+      <c r="C20" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>30</v>
@@ -1708,11 +1797,17 @@
       <c r="E20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1724,19 +1819,19 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1748,7 +1843,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1760,15 +1855,15 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>96</v>
+      <c r="C25" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>30</v>
@@ -1776,11 +1871,17 @@
       <c r="E25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1792,7 +1893,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1804,7 +1905,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1816,7 +1917,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1828,7 +1929,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1840,7 +1941,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1852,7 +1953,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1864,7 +1965,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1876,27 +1977,33 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>97</v>
+      <c r="C34" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1908,7 +2015,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1920,7 +2027,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1932,15 +2039,15 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>98</v>
+      <c r="C38" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>30</v>
@@ -1948,11 +2055,17 @@
       <c r="E38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1964,7 +2077,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1976,7 +2089,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1988,7 +2101,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2000,15 +2113,15 @@
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>99</v>
+      <c r="C43" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>30</v>
@@ -2016,11 +2129,17 @@
       <c r="E43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2032,7 +2151,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2044,7 +2163,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2056,7 +2175,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2068,7 +2187,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2080,7 +2199,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2092,7 +2211,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2104,7 +2223,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2116,15 +2235,15 @@
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>100</v>
+      <c r="C52" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>30</v>
@@ -2132,11 +2251,17 @@
       <c r="E52" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2148,7 +2273,7 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2160,7 +2285,7 @@
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2172,15 +2297,15 @@
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>101</v>
+      <c r="C56" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>30</v>
@@ -2188,11 +2313,17 @@
       <c r="E56" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2204,7 +2335,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2216,7 +2347,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2228,7 +2359,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2240,15 +2371,15 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>102</v>
+      <c r="C61" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>30</v>
@@ -2256,11 +2387,17 @@
       <c r="E61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2272,7 +2409,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2284,7 +2421,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2296,7 +2433,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2308,7 +2445,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2320,7 +2457,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2332,7 +2469,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2344,7 +2481,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2356,15 +2493,15 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>103</v>
+      <c r="C70" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>30</v>
@@ -2372,11 +2509,17 @@
       <c r="E70" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2388,7 +2531,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2400,7 +2543,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2412,15 +2555,15 @@
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>92</v>
+      <c r="C74" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>30</v>
@@ -2428,11 +2571,17 @@
       <c r="E74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2444,7 +2593,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -2456,7 +2605,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2468,7 +2617,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -2480,15 +2629,15 @@
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
     </row>
-    <row r="79" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>91</v>
+      <c r="C79" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>30</v>
@@ -2496,11 +2645,17 @@
       <c r="E79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -2512,19 +2667,19 @@
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -2536,19 +2691,19 @@
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -2560,15 +2715,15 @@
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
     </row>
-    <row r="85" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="31" t="s">
-        <v>90</v>
+      <c r="C85" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>30</v>
@@ -2576,11 +2731,17 @@
       <c r="E85" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -2592,19 +2753,19 @@
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -2616,7 +2777,7 @@
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -2628,7 +2789,7 @@
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -2640,39 +2801,39 @@
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
     </row>
-    <row r="93" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>89</v>
+      <c r="C93" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>30</v>
@@ -2680,11 +2841,17 @@
       <c r="E93" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -2696,19 +2863,19 @@
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -2720,19 +2887,19 @@
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -2744,15 +2911,15 @@
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
     </row>
-    <row r="99" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>88</v>
+      <c r="C99" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>30</v>
@@ -2760,11 +2927,17 @@
       <c r="E99" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -2776,19 +2949,19 @@
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -2800,7 +2973,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -2812,7 +2985,7 @@
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -2824,39 +2997,39 @@
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
     </row>
-    <row r="107" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>87</v>
+      <c r="C107" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>30</v>
@@ -2864,35 +3037,41 @@
       <c r="E107" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -2904,19 +3083,19 @@
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -2928,15 +3107,15 @@
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
     </row>
-    <row r="113" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>104</v>
+      <c r="C113" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>30</v>
@@ -2944,35 +3123,41 @@
       <c r="E113" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -2984,7 +3169,7 @@
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -2996,7 +3181,7 @@
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -3008,39 +3193,39 @@
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
     </row>
-    <row r="121" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="31" t="s">
-        <v>108</v>
+      <c r="C121" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>30</v>
@@ -3048,23 +3233,29 @@
       <c r="E121" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F121" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -3076,7 +3267,7 @@
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -3088,7 +3279,7 @@
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -3100,7 +3291,7 @@
       <c r="G125" s="18"/>
       <c r="H125" s="18"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -3112,15 +3303,15 @@
       <c r="G126" s="18"/>
       <c r="H126" s="18"/>
     </row>
-    <row r="127" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="31" t="s">
-        <v>109</v>
+      <c r="C127" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>30</v>
@@ -3128,35 +3319,41 @@
       <c r="E127" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
       <c r="H128" s="18"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -3168,7 +3365,7 @@
       <c r="G130" s="18"/>
       <c r="H130" s="18"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -3180,7 +3377,7 @@
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -3192,39 +3389,39 @@
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
       <c r="H133" s="18"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
     </row>
-    <row r="135" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B135" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="C135" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>30</v>
@@ -3232,35 +3429,41 @@
       <c r="E135" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -3272,19 +3475,19 @@
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -3296,15 +3499,15 @@
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
     </row>
-    <row r="141" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B141" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B141" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C141" s="31" t="s">
-        <v>115</v>
+      <c r="C141" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>30</v>
@@ -3312,35 +3515,41 @@
       <c r="E141" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -3352,7 +3561,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -3364,7 +3573,7 @@
       <c r="G145" s="18"/>
       <c r="H145" s="18"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -3376,39 +3585,39 @@
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
     </row>
-    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="31" t="s">
-        <v>119</v>
+      <c r="C149" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>30</v>
@@ -3416,23 +3625,29 @@
       <c r="E149" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F149" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -3444,7 +3659,7 @@
       <c r="G151" s="18"/>
       <c r="H151" s="18"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -3456,7 +3671,7 @@
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -3468,87 +3683,87 @@
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18"/>
       <c r="H154" s="18"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
     </row>
-    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C160" s="31" t="s">
-        <v>119</v>
+      <c r="C160" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>30</v>
@@ -3556,23 +3771,29 @@
       <c r="E160" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F160" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H160" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -3584,7 +3805,7 @@
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -3596,7 +3817,7 @@
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -3608,195 +3829,201 @@
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="18"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="18"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="18"/>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="18"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
     </row>
-    <row r="178" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C178" s="31" t="s">
-        <v>136</v>
+      <c r="C178" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F178" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G178" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H178" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
       <c r="H179" s="18"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -3808,7 +4035,7 @@
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -3820,7 +4047,7 @@
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -3832,7 +4059,7 @@
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -3844,7 +4071,7 @@
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -3856,36 +4083,36 @@
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
       <c r="H185" s="18"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="18"/>
       <c r="G186" s="18"/>
       <c r="H186" s="18"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="18"/>
@@ -3899,24 +4126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/Test Scenarios and cases.xlsx
+++ b/Project/Test Scenarios and cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SoftwareTestingHomwork\SoftwareTesting\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B991833B-0332-407F-A5E0-2260FBA44268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2575AE-ED2E-444E-AEDD-77E3D08164AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="162">
   <si>
     <t>Project Name</t>
   </si>
@@ -214,15 +214,9 @@
     <t>Logrithm</t>
   </si>
   <si>
-    <t>3. Enter right bracket sign</t>
-  </si>
-  <si>
     <t>4. Enter a number</t>
   </si>
   <si>
-    <t>5. Enter left bracket sign</t>
-  </si>
-  <si>
     <t>2. Enter log(ln) sign</t>
   </si>
   <si>
@@ -512,6 +506,9 @@
   </si>
   <si>
     <t>17. Enter right bracket sign</t>
+  </si>
+  <si>
+    <t>Get correct result</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1303,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -1318,7 +1315,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -1330,7 +1327,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -1342,7 +1339,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
@@ -1354,7 +1351,7 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="15">
         <v>2</v>
@@ -1366,7 +1363,7 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="15">
         <v>2</v>
@@ -1378,7 +1375,7 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" s="15">
         <v>2</v>
@@ -1390,7 +1387,7 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="15">
         <v>2</v>
@@ -1402,7 +1399,7 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
@@ -1414,7 +1411,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
@@ -1482,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>30</v>
@@ -1540,13 +1537,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1605,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>30</v>
@@ -1614,13 +1611,13 @@
         <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="H7" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1727,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>30</v>
@@ -1736,13 +1733,13 @@
         <v>43</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1789,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>30</v>
@@ -1798,13 +1795,13 @@
         <v>31</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1824,7 +1821,7 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -1863,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>30</v>
@@ -1872,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1898,7 +1895,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -1922,7 +1919,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -1946,7 +1943,7 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -1985,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>30</v>
@@ -1994,13 +1991,13 @@
         <v>43</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2020,7 +2017,7 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -2047,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>30</v>
@@ -2056,13 +2053,13 @@
         <v>31</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2082,7 +2079,7 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2121,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>30</v>
@@ -2130,13 +2127,13 @@
         <v>31</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2156,7 +2153,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -2180,7 +2177,7 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -2204,7 +2201,7 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -2243,7 +2240,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>30</v>
@@ -2252,13 +2249,13 @@
         <v>55</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2278,7 +2275,7 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -2305,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>30</v>
@@ -2314,13 +2311,13 @@
         <v>31</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2340,7 +2337,7 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -2379,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>30</v>
@@ -2388,13 +2385,13 @@
         <v>31</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -2414,7 +2411,7 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -2438,7 +2435,7 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -2462,7 +2459,7 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2501,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>30</v>
@@ -2510,13 +2507,13 @@
         <v>55</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -2536,7 +2533,7 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
@@ -2563,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>30</v>
@@ -2572,13 +2569,13 @@
         <v>56</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2598,7 +2595,7 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -2637,7 +2634,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>30</v>
@@ -2646,13 +2643,13 @@
         <v>31</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -2660,7 +2657,7 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
@@ -2672,7 +2669,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -2684,7 +2681,7 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
@@ -2696,7 +2693,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
@@ -2723,7 +2720,7 @@
         <v>62</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>30</v>
@@ -2732,13 +2729,13 @@
         <v>31</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -2746,7 +2743,7 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
@@ -2758,7 +2755,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
@@ -2770,7 +2767,7 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
@@ -2782,7 +2779,7 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -2794,7 +2791,7 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -2806,7 +2803,7 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
@@ -2818,7 +2815,7 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -2827,13 +2824,13 @@
     </row>
     <row r="93" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="C93" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>30</v>
@@ -2842,13 +2839,13 @@
         <v>31</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -2856,7 +2853,7 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
@@ -2868,7 +2865,7 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -2880,7 +2877,7 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
@@ -2892,7 +2889,7 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
@@ -2913,13 +2910,13 @@
     </row>
     <row r="99" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>30</v>
@@ -2928,13 +2925,13 @@
         <v>31</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -2942,7 +2939,7 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
@@ -2954,7 +2951,7 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
@@ -2966,7 +2963,7 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
@@ -2978,7 +2975,7 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
@@ -2990,7 +2987,7 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
@@ -3002,7 +2999,7 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
@@ -3014,7 +3011,7 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
@@ -3023,13 +3020,13 @@
     </row>
     <row r="107" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>30</v>
@@ -3038,13 +3035,13 @@
         <v>31</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -3052,7 +3049,7 @@
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
@@ -3064,7 +3061,7 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
@@ -3076,7 +3073,7 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
@@ -3088,7 +3085,7 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
@@ -3109,13 +3106,13 @@
     </row>
     <row r="113" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>30</v>
@@ -3124,13 +3121,13 @@
         <v>31</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -3138,7 +3135,7 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
@@ -3150,7 +3147,7 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
@@ -3162,7 +3159,7 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
@@ -3174,7 +3171,7 @@
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
@@ -3186,7 +3183,7 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
@@ -3198,7 +3195,7 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
@@ -3210,7 +3207,7 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
@@ -3219,13 +3216,13 @@
     </row>
     <row r="121" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>30</v>
@@ -3234,13 +3231,13 @@
         <v>31</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -3248,7 +3245,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
@@ -3260,7 +3257,7 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
@@ -3272,7 +3269,7 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
@@ -3284,7 +3281,7 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
@@ -3305,13 +3302,13 @@
     </row>
     <row r="127" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>30</v>
@@ -3320,13 +3317,13 @@
         <v>31</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -3334,7 +3331,7 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
@@ -3346,7 +3343,7 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
@@ -3358,7 +3355,7 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="18"/>
@@ -3370,7 +3367,7 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="18"/>
@@ -3382,7 +3379,7 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="18"/>
@@ -3394,7 +3391,7 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
@@ -3406,7 +3403,7 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
@@ -3415,13 +3412,13 @@
     </row>
     <row r="135" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="C135" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>30</v>
@@ -3430,13 +3427,13 @@
         <v>31</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -3444,7 +3441,7 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
@@ -3456,7 +3453,7 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
@@ -3468,7 +3465,7 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
@@ -3480,7 +3477,7 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
@@ -3501,13 +3498,13 @@
     </row>
     <row r="141" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>30</v>
@@ -3516,13 +3513,13 @@
         <v>31</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -3530,7 +3527,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
@@ -3542,7 +3539,7 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -3554,7 +3551,7 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="18"/>
@@ -3566,7 +3563,7 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="18"/>
@@ -3578,7 +3575,7 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
@@ -3590,7 +3587,7 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
@@ -3602,7 +3599,7 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
@@ -3611,13 +3608,13 @@
     </row>
     <row r="149" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>30</v>
@@ -3626,13 +3623,13 @@
         <v>31</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -3640,7 +3637,7 @@
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
@@ -3652,7 +3649,7 @@
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
@@ -3664,7 +3661,7 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
@@ -3688,7 +3685,7 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
@@ -3700,7 +3697,7 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
@@ -3712,7 +3709,7 @@
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
@@ -3724,7 +3721,7 @@
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="18"/>
@@ -3736,7 +3733,7 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="18"/>
@@ -3748,7 +3745,7 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="18"/>
@@ -3757,13 +3754,13 @@
     </row>
     <row r="160" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>30</v>
@@ -3772,13 +3769,13 @@
         <v>31</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -3786,7 +3783,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
@@ -3798,7 +3795,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="18"/>
@@ -3810,7 +3807,7 @@
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="18"/>
@@ -3834,7 +3831,7 @@
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="18"/>
@@ -3846,7 +3843,7 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="18"/>
@@ -3858,7 +3855,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
@@ -3870,7 +3867,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="18"/>
@@ -3882,7 +3879,7 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
@@ -3894,7 +3891,7 @@
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="18"/>
@@ -3906,7 +3903,7 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="18"/>
@@ -3918,7 +3915,7 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="18"/>
@@ -3930,7 +3927,7 @@
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -3942,7 +3939,7 @@
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="18"/>
@@ -3954,7 +3951,7 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="18"/>
@@ -3966,7 +3963,7 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="18"/>
@@ -3978,7 +3975,7 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
@@ -3987,28 +3984,28 @@
     </row>
     <row r="178" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -4016,7 +4013,7 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="18"/>
@@ -4028,7 +4025,7 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
@@ -4040,7 +4037,7 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="18"/>
@@ -4064,7 +4061,7 @@
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="18"/>
@@ -4076,7 +4073,7 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="18"/>
@@ -4088,7 +4085,7 @@
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
@@ -4100,7 +4097,7 @@
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="18"/>
@@ -4112,7 +4109,7 @@
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="18"/>
